--- a/test_results/algo1results.xlsx
+++ b/test_results/algo1results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpvan\Documents\School\Third Year\320\Project\320-Algorithms-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpvan\Documents\School\Third Year\320\Project\320-Algorithms-Project\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFBF139-B5C0-41D6-9FD0-9BECE91DA9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B161B5B-3198-4B3C-BAAC-ABE264F480A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{8221BE96-5C3E-47AA-BF90-AC8F560E9B8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8221BE96-5C3E-47AA-BF90-AC8F560E9B8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -51,14 +52,35 @@
     <t>nlog(n)</t>
   </si>
   <si>
-    <t>log(n)^2</t>
+    <t>0.1* log(n)^2</t>
+  </si>
+  <si>
+    <t>Algo 1</t>
+  </si>
+  <si>
+    <t>TVC-&gt; TWF</t>
+  </si>
+  <si>
+    <t>BET -&gt; EYW</t>
+  </si>
+  <si>
+    <t>INL -&gt; DUT</t>
+  </si>
+  <si>
+    <t>DUT -&gt;PQI</t>
+  </si>
+  <si>
+    <t>SIT -&gt; LRD</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +91,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -119,12 +155,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -145,6 +193,222 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="660616192"/>
+        <c:axId val="660618688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="660616192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660618688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660618688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660616192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -524,7 +788,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$1</c15:sqref>
@@ -565,7 +829,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
@@ -613,7 +877,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$C$12</c15:sqref>
@@ -660,7 +924,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-2DE5-4FAF-B121-0C4A362692E8}"/>
                   </c:ext>
@@ -673,7 +937,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1</c15:sqref>
@@ -714,7 +978,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
@@ -762,7 +1026,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2:$E$12</c15:sqref>
@@ -809,7 +1073,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-2DE5-4FAF-B121-0C4A362692E8}"/>
                   </c:ext>
@@ -1095,7 +1359,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1268,7 +1532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log(n)^2</c:v>
+                  <c:v>0.1* log(n)^2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1361,37 +1625,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>155.82678641114143</c:v>
+                  <c:v>15.582678641114143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181.65678513034624</c:v>
+                  <c:v>18.165678513034624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.16795261804126</c:v>
+                  <c:v>24.816795261804128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275.67367224202098</c:v>
+                  <c:v>27.567367224202101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>309.75079657050918</c:v>
+                  <c:v>30.975079657050919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>359.89070589125572</c:v>
+                  <c:v>35.989070589125575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>397.26742563367128</c:v>
+                  <c:v>39.726742563367132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>451.71112045565104</c:v>
+                  <c:v>45.17111204556511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>495.21811378407409</c:v>
+                  <c:v>49.521811378407413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>521.59521702829818</c:v>
+                  <c:v>52.159521702829821</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>540.7251071124972</c:v>
+                  <c:v>54.07251071124972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1905,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
                   </c:ext>
@@ -1654,7 +1918,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -1695,7 +1959,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
@@ -1743,7 +2007,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$12</c15:sqref>
@@ -1790,7 +2054,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
                   </c:ext>
@@ -1939,7 +2203,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E2C8-4CAE-B9BF-C84D8F0CDBE8}"/>
                   </c:ext>
@@ -2303,8 +2567,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2331,8 +2635,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2433,7 +2737,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2465,10 +2769,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2508,23 +2812,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2629,8 +2932,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2762,20 +3065,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2789,17 +3091,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3335,20 +3626,580 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F5526FA-9D94-485B-8AEB-D3FBFCDF62A4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0713971-C34B-4609-90E5-9DD33966B1B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3375,16 +4226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3711,15 +4562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC10567-20B3-44CE-A868-432D1AB62BAA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,20 +4601,20 @@
         <v>6.7475999999999994E-2</v>
       </c>
       <c r="C2">
-        <f>A2 * A2</f>
+        <f t="shared" ref="C2:C12" si="0">A2 * A2</f>
         <v>32775625</v>
       </c>
       <c r="D2">
-        <f>LOG(A2, 2)</f>
+        <f t="shared" ref="D2:D12" si="1">LOG(A2, 2)</f>
         <v>12.483059977871669</v>
       </c>
       <c r="E2">
-        <f>A2 * LOG(A2)</f>
+        <f t="shared" ref="E2:E12" si="2">A2 * LOG(A2)</f>
         <v>21513.264686043272</v>
       </c>
       <c r="F2">
-        <f>POWER(LOG(A2,2),2)</f>
-        <v>155.82678641114143</v>
+        <f>0.1 * POWER(LOG(A2,2),2)</f>
+        <v>15.582678641114143</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3774,20 +4625,20 @@
         <v>7.6347999999999999E-2</v>
       </c>
       <c r="C3">
-        <f>A3 * A3</f>
+        <f t="shared" si="0"/>
         <v>130188100</v>
       </c>
       <c r="D3">
-        <f>LOG(A3, 2)</f>
+        <f t="shared" si="1"/>
         <v>13.478011171176044</v>
       </c>
       <c r="E3">
-        <f>A3 * LOG(A3)</f>
+        <f t="shared" si="2"/>
         <v>46293.629202811833</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">POWER(LOG(A3,2),2)</f>
-        <v>181.65678513034624</v>
+        <f t="shared" ref="F3:F12" si="3">0.1 * POWER(LOG(A3,2),2)</f>
+        <v>18.165678513034624</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3798,20 +4649,20 @@
         <v>0.14999599999999999</v>
       </c>
       <c r="C4">
-        <f>A4 * A4</f>
+        <f t="shared" si="0"/>
         <v>3051126169</v>
       </c>
       <c r="D4">
-        <f>LOG(A4, 2)</f>
+        <f t="shared" si="1"/>
         <v>15.75334734645438</v>
       </c>
       <c r="E4">
-        <f>A4 * LOG(A4)</f>
+        <f t="shared" si="2"/>
         <v>261946.56311656427</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>248.16795261804126</v>
+        <f t="shared" si="3"/>
+        <v>24.816795261804128</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3822,20 +4673,20 @@
         <v>0.22547800000000001</v>
       </c>
       <c r="C5">
-        <f>A5 * A5</f>
+        <f t="shared" si="0"/>
         <v>9914184900</v>
       </c>
       <c r="D5">
-        <f>LOG(A5, 2)</f>
+        <f t="shared" si="1"/>
         <v>16.60342350968682</v>
       </c>
       <c r="E5">
-        <f>A5 * LOG(A5)</f>
+        <f t="shared" si="2"/>
         <v>497663.65545476147</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>275.67367224202098</v>
+        <f t="shared" si="3"/>
+        <v>27.567367224202101</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3846,20 +4697,20 @@
         <v>0.38635599999999998</v>
       </c>
       <c r="C6">
-        <f>A6 * A6</f>
+        <f t="shared" si="0"/>
         <v>39454671424</v>
       </c>
       <c r="D6">
-        <f>LOG(A6, 2)</f>
+        <f t="shared" si="1"/>
         <v>17.599738536992792</v>
       </c>
       <c r="E6">
-        <f>A6 * LOG(A6)</f>
+        <f t="shared" si="2"/>
         <v>1052362.1117688545</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>309.75079657050918</v>
+        <f t="shared" si="3"/>
+        <v>30.975079657050919</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3870,20 +4721,20 @@
         <v>0.86854799999999999</v>
       </c>
       <c r="C7">
-        <f>A7 * A7</f>
+        <f t="shared" si="0"/>
         <v>263967833284</v>
       </c>
       <c r="D7">
-        <f>LOG(A7, 2)</f>
+        <f t="shared" si="1"/>
         <v>18.970785589723366</v>
       </c>
       <c r="E7">
-        <f>A7 * LOG(A7)</f>
+        <f t="shared" si="2"/>
         <v>2934070.8167999578</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>359.89070589125572</v>
+        <f t="shared" si="3"/>
+        <v>35.989070589125575</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3894,20 +4745,20 @@
         <v>1.360576</v>
       </c>
       <c r="C8">
-        <f>A8 * A8</f>
+        <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
       <c r="D8">
-        <f>LOG(A8, 2)</f>
+        <f t="shared" si="1"/>
         <v>19.931568569324174</v>
       </c>
       <c r="E8">
-        <f>A8 * LOG(A8)</f>
+        <f t="shared" si="2"/>
         <v>6000000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>397.26742563367128</v>
+        <f t="shared" si="3"/>
+        <v>39.726742563367132</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3918,20 +4769,20 @@
         <v>3.5814400000000002</v>
       </c>
       <c r="C9">
-        <f>A9 * A9</f>
+        <f t="shared" si="0"/>
         <v>6250000000000</v>
       </c>
       <c r="D9">
-        <f>LOG(A9, 2)</f>
+        <f t="shared" si="1"/>
         <v>21.253496664211539</v>
       </c>
       <c r="E9">
-        <f>A9 * LOG(A9)</f>
+        <f t="shared" si="2"/>
         <v>15994850.021680094</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>451.71112045565104</v>
+        <f t="shared" si="3"/>
+        <v>45.17111204556511</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,20 +4793,20 @@
         <v>6.5768399999999998</v>
       </c>
       <c r="C10">
-        <f>A10 * A10</f>
+        <f t="shared" si="0"/>
         <v>25000000000000</v>
       </c>
       <c r="D10">
-        <f>LOG(A10, 2)</f>
+        <f t="shared" si="1"/>
         <v>22.253496664211539</v>
       </c>
       <c r="E10">
-        <f>A10 * LOG(A10)</f>
+        <f t="shared" si="2"/>
         <v>33494850.021680094</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>495.21811378407409</v>
+        <f t="shared" si="3"/>
+        <v>49.521811378407413</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3966,20 +4817,20 @@
         <v>11.07568</v>
       </c>
       <c r="C11">
-        <f>A11 * A11</f>
+        <f t="shared" si="0"/>
         <v>56250000000000</v>
       </c>
       <c r="D11">
-        <f>LOG(A11, 2)</f>
+        <f t="shared" si="1"/>
         <v>22.838459164932694</v>
       </c>
       <c r="E11">
-        <f>A11 * LOG(A11)</f>
+        <f t="shared" si="2"/>
         <v>51562959.475437753</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>521.59521702829818</v>
+        <f t="shared" si="3"/>
+        <v>52.159521702829821</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3990,21 +4841,302 @@
         <v>14.031072</v>
       </c>
       <c r="C12">
-        <f>A12 * A12</f>
+        <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
       <c r="D12">
-        <f>LOG(A12, 2)</f>
+        <f t="shared" si="1"/>
         <v>23.253496664211539</v>
       </c>
       <c r="E12">
-        <f>A12 * LOG(A12)</f>
+        <f t="shared" si="2"/>
         <v>70000000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>540.7251071124972</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>54.07251071124972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5725</v>
+      </c>
+      <c r="C25" s="6">
+        <v>11410</v>
+      </c>
+      <c r="D25" s="6">
+        <v>55237</v>
+      </c>
+      <c r="E25" s="6">
+        <v>99570</v>
+      </c>
+      <c r="F25" s="6">
+        <v>198632</v>
+      </c>
+      <c r="G25" s="6">
+        <v>513778</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="K25" s="6">
+        <v>7500000</v>
+      </c>
+      <c r="L25" s="6">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.6820000000000004E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.6550000000000007E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.15159</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.39224999999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.86970999999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.2868599999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.6381999999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6.4470000000000001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>11.3992</v>
+      </c>
+      <c r="L26" s="1">
+        <v>15.24568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6.6820000000000004E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7.5789999999999996E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.22147</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.38557999999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.87265999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.30199</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6.2152000000000003</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10.2607</v>
+      </c>
+      <c r="L27" s="1">
+        <v>12.56291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.5850000000000006E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7.6840000000000006E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.22137000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.38396999999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.3988</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.5116999999999998</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6.5510999999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>11.703900000000001</v>
+      </c>
+      <c r="L28" s="1">
+        <v>14.933680000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.1059999999999998E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.15059</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.38696999999999998</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.86967000000000005</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.2930200000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.5173000000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6.8407</v>
+      </c>
+      <c r="K29" s="1">
+        <v>11.551600000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>15.04806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6.6830000000000001E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.6759999999999995E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.22259999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.38301000000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.86392000000000002</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.5222100000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.472</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6.7851999999999997</v>
+      </c>
+      <c r="K30" s="1">
+        <v>10.462999999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>12.365030000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6.7475999999999994E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7.6347999999999999E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.14999599999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.22547800000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.38635599999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.86854799999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.360576</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.59144</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6.5678400000000003</v>
+      </c>
+      <c r="K31" s="1">
+        <v>11.07568</v>
+      </c>
+      <c r="L31" s="1">
+        <v>14.031072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
